--- a/Consumer/Tapestry.xlsx
+++ b/Consumer/Tapestry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080F6B6C-8772-564E-8C53-9B07F287B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F2102-3359-9541-95B8-8ED35535C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2407,11 +2407,11 @@
     <v>Powered by Refinitiv</v>
     <v>47.48</v>
     <v>26.39</v>
-    <v>1.4706999999999999</v>
-    <v>-0.41</v>
-    <v>-9.6950000000000005E-3</v>
-    <v>0.08</v>
-    <v>1.91E-3</v>
+    <v>1.4907999999999999</v>
+    <v>3.07</v>
+    <v>8.2659999999999997E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Tapestry, Inc. is a global house of luxury accessories and lifestyle brands. The Company's brands include Coach, Kate spade New York, and Stuart Weitzman. The Company operates through three segments: Coach, Kate Spade and Stuart Weitzman. The Coach segment includes global sales of Coach products to customers through Coach operated stores, including e-commerce sites and concession shop-in-shops, and sales to wholesale customers and through independent third-party distributors. The Kate Spade segment includes global sales primarily of Kate Spade New York brand products to customers through Kate Spade operated stores, including e-commerce sites and concession shop-in-shops, sales to wholesale customers, and through independent third-party distributors. The Stuart Weitzman segment includes global sales of Stuart Weitzman brand products primarily through Stuart Weitzman operated stores, sales to wholesale customers, through e-commerce sites, and through independent third-party distributors.</v>
     <v>12600</v>
@@ -2419,25 +2419,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>42.25</v>
+    <v>41.1586</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45037.99965788125</v>
+    <v>45057.999515010939</v>
     <v>0</v>
-    <v>41.81</v>
-    <v>9886848000</v>
+    <v>38.654000000000003</v>
+    <v>9492599876</v>
     <v>TAPESTRY, INC.</v>
     <v>TAPESTRY, INC.</v>
-    <v>42.13</v>
-    <v>12.5992</v>
-    <v>42.29</v>
-    <v>41.88</v>
-    <v>41.96</v>
+    <v>39.25</v>
+    <v>11.0649</v>
+    <v>37.14</v>
+    <v>40.21</v>
+    <v>40.21</v>
     <v>236075600</v>
     <v>TPR</v>
     <v>TAPESTRY, INC. (XNYS:TPR)</v>
-    <v>1735087</v>
-    <v>2973426</v>
+    <v>10166234</v>
+    <v>3044120</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3025,10 +3025,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC103" sqref="AC103"/>
+      <selection pane="bottomRight" activeCell="AD88" sqref="AD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4584,15 +4584,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>1.479070685915177</v>
+        <v>1.4200912373401151</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>11.546009576083149</v>
+        <v>11.085600696017751</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>13.021003555906756</v>
+        <v>12.5017777900698</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10052,10 +10052,10 @@
       <c r="Z83" s="1">
         <v>-311700000</v>
       </c>
-      <c r="AG83" s="59" t="s">
+      <c r="AG83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AH83" s="60"/>
+      <c r="AH83" s="62"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10136,10 +10136,10 @@
       <c r="Z84" s="1">
         <v>86400000</v>
       </c>
-      <c r="AG84" s="61" t="s">
+      <c r="AG84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AH84" s="62"/>
+      <c r="AH84" s="64"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10941,10 +10941,10 @@
       <c r="Z93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG93" s="61" t="s">
+      <c r="AG93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AH93" s="62"/>
+      <c r="AH93" s="64"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="AH95" s="38" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.4706999999999999</v>
+        <v>1.4907999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.10426363500000001</v>
+        <v>0.10512894</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11371,10 +11371,10 @@
       <c r="Z98" s="1">
         <v>-264400000</v>
       </c>
-      <c r="AG98" s="61" t="s">
+      <c r="AG98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AH98" s="62"/>
+      <c r="AH98" s="64"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>0.24804825707577161</v>
+        <v>0.25571585633595467</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="AH101" s="39" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9886848000</v>
+        <v>9492599876</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.75195174292422839</v>
+        <v>0.74428414366404527</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="AH103" s="40">
         <f>AH99+AH101</f>
-        <v>13148248000</v>
+        <v>12753999876</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11890,10 +11890,10 @@
       <c r="Z104" s="11">
         <v>789800000</v>
       </c>
-      <c r="AG104" s="61" t="s">
+      <c r="AG104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AH104" s="62"/>
+      <c r="AH104" s="64"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>8.2052538535183517E-2</v>
+        <v>8.2009988042568566E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12153,7 +12153,7 @@
       <c r="AD107" s="42"/>
       <c r="AE107" s="45">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>15805345490.461578</v>
+        <v>15817142111.714445</v>
       </c>
       <c r="AF107" s="46" t="s">
         <v>148</v>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="AE108" s="45">
         <f>AE107+AE106</f>
-        <v>16685087034.516649</v>
+        <v>16696883655.769516</v>
       </c>
       <c r="AF108" s="46" t="s">
         <v>144</v>
@@ -12194,14 +12194,14 @@
       </c>
       <c r="AH108" s="50">
         <f>AH105</f>
-        <v>8.2052538535183517E-2</v>
+        <v>8.2009988042568566E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="63" t="s">
+      <c r="AA109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AB109" s="64"/>
+      <c r="AB109" s="60"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="51" t="s">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="AB110" s="39">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>13936646536.905754</v>
+        <v>13947070503.631351</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="AB113" s="39">
         <f>AB110+AB111-AB112</f>
-        <v>11628446536.905754</v>
+        <v>11638870503.631351</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>45.015539689588913</v>
+        <v>45.05589249908671</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>41.96</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>7.2820297654645261E-2</v>
+        <v>0.12051461077062187</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Tapestry.xlsx
+++ b/Consumer/Tapestry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F2102-3359-9541-95B8-8ED35535C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAC131-39FD-824E-903B-8A027C8C8966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2406,12 +2406,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>47.48</v>
-    <v>26.39</v>
-    <v>1.4907999999999999</v>
-    <v>3.07</v>
-    <v>8.2659999999999997E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>27.53</v>
+    <v>1.4873000000000001</v>
+    <v>5.5E-2</v>
+    <v>1.281E-3</v>
     <v>USD</v>
     <v>Tapestry, Inc. is a global house of luxury accessories and lifestyle brands. The Company's brands include Coach, Kate spade New York, and Stuart Weitzman. The Company operates through three segments: Coach, Kate Spade and Stuart Weitzman. The Coach segment includes global sales of Coach products to customers through Coach operated stores, including e-commerce sites and concession shop-in-shops, and sales to wholesale customers and through independent third-party distributors. The Kate Spade segment includes global sales primarily of Kate Spade New York brand products to customers through Kate Spade operated stores, including e-commerce sites and concession shop-in-shops, sales to wholesale customers, and through independent third-party distributors. The Stuart Weitzman segment includes global sales of Stuart Weitzman brand products primarily through Stuart Weitzman operated stores, sales to wholesale customers, through e-commerce sites, and through independent third-party distributors.</v>
     <v>12600</v>
@@ -2419,25 +2417,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>41.1586</v>
+    <v>43.145000000000003</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45057.999515010939</v>
+    <v>45100.783003564065</v>
     <v>0</v>
-    <v>38.654000000000003</v>
-    <v>9492599876</v>
+    <v>41.93</v>
+    <v>9961510455</v>
     <v>TAPESTRY, INC.</v>
     <v>TAPESTRY, INC.</v>
-    <v>39.25</v>
-    <v>11.0649</v>
-    <v>37.14</v>
-    <v>40.21</v>
-    <v>40.21</v>
-    <v>236075600</v>
+    <v>42.27</v>
+    <v>11.6843</v>
+    <v>42.92</v>
+    <v>42.975000000000001</v>
+    <v>231797800</v>
     <v>TPR</v>
     <v>TAPESTRY, INC. (XNYS:TPR)</v>
-    <v>10166234</v>
-    <v>3044120</v>
+    <v>1532561</v>
+    <v>3082322</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2469,8 +2466,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2491,7 +2486,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2508,7 +2502,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2519,16 +2513,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2594,19 +2585,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2651,9 +2636,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2661,9 +2643,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3025,10 +3004,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD88" sqref="AD88"/>
+      <selection pane="bottomRight" activeCell="AB117" sqref="AB117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4584,15 +4563,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>1.4200912373401151</v>
+        <v>1.490240175779789</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>11.085600696017751</v>
+        <v>11.633201512320449</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>12.5017777900698</v>
+        <v>13.119334195969973</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11116,7 +11095,7 @@
       </c>
       <c r="AH95" s="38" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.4907999999999999</v>
+        <v>1.4873000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11289,7 +11268,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.10512894</v>
+        <v>0.10497826500000002</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11547,7 +11526,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>0.25571585633595467</v>
+        <v>0.24664766589013401</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11634,7 +11613,7 @@
       </c>
       <c r="AH101" s="39" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9492599876</v>
+        <v>9961510455</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11721,7 +11700,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.74428414366404527</v>
+        <v>0.75335233410986602</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11808,7 +11787,7 @@
       </c>
       <c r="AH103" s="40">
         <f>AH99+AH101</f>
-        <v>12753999876</v>
+        <v>13222910455</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12007,7 +11986,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>8.2009988042568566E-2</v>
+        <v>8.2716320479153574E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12153,7 +12132,7 @@
       <c r="AD107" s="42"/>
       <c r="AE107" s="45">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>15817142111.714445</v>
+        <v>15623571897.348236</v>
       </c>
       <c r="AF107" s="46" t="s">
         <v>148</v>
@@ -12184,7 +12163,7 @@
       </c>
       <c r="AE108" s="45">
         <f>AE107+AE106</f>
-        <v>16696883655.769516</v>
+        <v>16503313441.403307</v>
       </c>
       <c r="AF108" s="46" t="s">
         <v>144</v>
@@ -12194,7 +12173,7 @@
       </c>
       <c r="AH108" s="50">
         <f>AH105</f>
-        <v>8.2009988042568566E-2</v>
+        <v>8.2716320479153574E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12209,7 +12188,7 @@
       </c>
       <c r="AB110" s="39">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>13947070503.631351</v>
+        <v>13776024552.367647</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12236,7 +12215,7 @@
       </c>
       <c r="AB113" s="39">
         <f>AB110+AB111-AB112</f>
-        <v>11638870503.631351</v>
+        <v>11467824552.367647</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12254,7 +12233,7 @@
       </c>
       <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>45.05589249908671</v>
+        <v>44.393746804610856</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12262,8 +12241,8 @@
         <v>157</v>
       </c>
       <c r="AB116" s="55" cm="1">
-        <f t="array" ref="AB116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>40.21</v>
+        <f t="array" ref="AB116">_FV(A1,"Price",TRUE)</f>
+        <v>42.975000000000001</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12251,7 @@
       </c>
       <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>0.12051461077062187</v>
+        <v>3.3013305517413771E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
